--- a/base-llm/mistral-7b/AirlinesCustomerSatisfaction/ontology_URIs.xlsx
+++ b/base-llm/mistral-7b/AirlinesCustomerSatisfaction/ontology_URIs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanm\OntoGenixLLMExperiments\base-llm\mistral-7b\AirlinesCustomerSatisfaction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4308EBF-433F-4556-862B-31238C54F477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E02C43-448A-4C5F-9B88-C2A2135F3C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="948" windowWidth="23040" windowHeight="11412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="URIs" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
   <si>
     <t>URI</t>
   </si>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>owl:ObjectProperty</t>
-  </si>
-  <si>
-    <t>xsd:integer</t>
   </si>
   <si>
     <t>rdfs:subClassOf</t>
@@ -471,29 +468,29 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -504,7 +501,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -537,13 +534,13 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -551,10 +548,10 @@
         <v>6</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -605,10 +602,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
